--- a/Knapsack Data.xlsx
+++ b/Knapsack Data.xlsx
@@ -58,6 +58,9 @@
     <t>item-14</t>
   </si>
   <si>
+    <t>sp_itemDescription</t>
+  </si>
+  <si>
     <t>p_itemValue</t>
   </si>
   <si>
@@ -71,9 +74,6 @@
   </si>
   <si>
     <t>p_itemBound</t>
-  </si>
-  <si>
-    <t>sp_itemDescription</t>
   </si>
   <si>
     <t>Items</t>
@@ -174,14 +174,14 @@
       <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0">
-        <v>76.210418974484128</v>
+      <c r="B2" s="0" t="s">
+        <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>3.8539123131431516</v>
+        <v>119.19361756033405</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>8.1316378437213785</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -189,22 +189,22 @@
       <c r="F2" s="0">
         <v>10</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>0</v>
+      <c r="G2" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0">
-        <v>163.34513458804093</v>
+      <c r="B3" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>2.256604800394463</v>
+        <v>148.6900780500518</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.64925494748383439</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -212,22 +212,22 @@
       <c r="F3" s="0">
         <v>3</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>1</v>
+      <c r="G3" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0">
-        <v>129.62530571596653</v>
+      <c r="B4" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="0">
-        <v>6.3100516273112062</v>
+        <v>192.49304125043992</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>14.640510116696957</v>
       </c>
       <c r="E4" s="0">
         <v>0</v>
@@ -235,22 +235,22 @@
       <c r="F4" s="0">
         <v>4</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>2</v>
+      <c r="G4" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0">
-        <v>102.89335826893793</v>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="0">
-        <v>0.84605445540275881</v>
+        <v>79.115683271925633</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>13.121663052389801</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -258,22 +258,22 @@
       <c r="F5" s="0">
         <v>4</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>3</v>
+      <c r="G5" s="0">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0">
-        <v>111.40086709489623</v>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="0">
-        <v>0.54936849061360882</v>
+        <v>46.858647185334384</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>19.781031670035816</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -281,7 +281,7 @@
       <c r="F6" s="0">
         <v>3</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="0">
         <v>4</v>
       </c>
     </row>
@@ -289,14 +289,14 @@
       <c r="A7" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0">
-        <v>99.16241452693427</v>
+      <c r="B7" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="0">
-        <v>8.2653894359105475</v>
+        <v>46.884671692381588</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>9.2964154807576804</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
@@ -304,22 +304,22 @@
       <c r="F7" s="0">
         <v>9</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>5</v>
+      <c r="G7" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0">
-        <v>55.124038949551512</v>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="0">
-        <v>19.711084562828212</v>
+        <v>17.170279937701221</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
+        <v>14.630546603682431</v>
       </c>
       <c r="E8" s="0">
         <v>0</v>
@@ -327,22 +327,22 @@
       <c r="F8" s="0">
         <v>5</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>6</v>
+      <c r="G8" s="0">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="0">
-        <v>47.422189670633642</v>
+      <c r="B9" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="0">
-        <v>7.405811291161851</v>
+        <v>115.69241406797848</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>10.559022739322346</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -350,22 +350,22 @@
       <c r="F9" s="0">
         <v>6</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>7</v>
+      <c r="G9" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="0">
-        <v>64.324972887335576</v>
+      <c r="B10" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="0">
-        <v>17.256119264654469</v>
+        <v>2.0259798780667704</v>
       </c>
       <c r="D10" s="0">
-        <v>0</v>
+        <v>3.7263060347024215</v>
       </c>
       <c r="E10" s="0">
         <v>0</v>
@@ -373,22 +373,22 @@
       <c r="F10" s="0">
         <v>7</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>8</v>
+      <c r="G10" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0">
-        <v>108.03468284590139</v>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="0">
-        <v>4.3334324633140833</v>
+        <v>144.31199751418811</v>
       </c>
       <c r="D11" s="0">
-        <v>0</v>
+        <v>8.3202909701490952</v>
       </c>
       <c r="E11" s="0">
         <v>0</v>
@@ -396,22 +396,22 @@
       <c r="F11" s="0">
         <v>2</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>9</v>
+      <c r="G11" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0">
-        <v>184.20604084542634</v>
+      <c r="B12" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="0">
-        <v>13.835724466933275</v>
+        <v>101.4754594251787</v>
       </c>
       <c r="D12" s="0">
-        <v>0</v>
+        <v>5.6580792387175096</v>
       </c>
       <c r="E12" s="0">
         <v>0</v>
@@ -419,22 +419,22 @@
       <c r="F12" s="0">
         <v>8</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>10</v>
+      <c r="G12" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="0">
-        <v>169.56640728958885</v>
+      <c r="B13" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="0">
-        <v>6.0624483022808011</v>
+        <v>131.74364066831112</v>
       </c>
       <c r="D13" s="0">
-        <v>0</v>
+        <v>13.436906626412664</v>
       </c>
       <c r="E13" s="0">
         <v>0</v>
@@ -442,22 +442,22 @@
       <c r="F13" s="0">
         <v>10</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>11</v>
+      <c r="G13" s="0">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="0">
-        <v>163.01161295989826</v>
+      <c r="B14" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="0">
-        <v>6.582865939758177</v>
+        <v>142.95254680231488</v>
       </c>
       <c r="D14" s="0">
-        <v>0</v>
+        <v>4.2679386615269568</v>
       </c>
       <c r="E14" s="0">
         <v>0</v>
@@ -465,22 +465,22 @@
       <c r="F14" s="0">
         <v>3</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>12</v>
+      <c r="G14" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="0">
-        <v>175.36751602172944</v>
+      <c r="B15" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="0">
-        <v>4.9870453022149377</v>
+        <v>127.73605620032882</v>
       </c>
       <c r="D15" s="0">
-        <v>0</v>
+        <v>7.0539712640029926</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -488,8 +488,8 @@
       <c r="F15" s="0">
         <v>3</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>13</v>
+      <c r="G15" s="0">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
